--- a/biology/Médecine/Contre-visite_médicale/Contre-visite_médicale.xlsx
+++ b/biology/Médecine/Contre-visite_médicale/Contre-visite_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contre-visite_m%C3%A9dicale</t>
+          <t>Contre-visite_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une contre-visite médicale est un examen médical effectué par un médecin contrôleur au domicile d'un salarié. Elle permet de contrôler l'incapacité de travail pour raisons médicales, non de porter un jugement sur la nature de l'affection. Il est affirmé par les entreprises de ce secteur que la contre-visite médicale aide à faire baisser l'absentéisme au sein des entreprises, mais ce point ne fait pas l'unanimité[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une contre-visite médicale est un examen médical effectué par un médecin contrôleur au domicile d'un salarié. Elle permet de contrôler l'incapacité de travail pour raisons médicales, non de porter un jugement sur la nature de l'affection. Il est affirmé par les entreprises de ce secteur que la contre-visite médicale aide à faire baisser l'absentéisme au sein des entreprises, mais ce point ne fait pas l'unanimité.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contre-visite_m%C3%A9dicale</t>
+          <t>Contre-visite_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La contre-visite médicale est née de la loi de mensualisation de 1978[2]. La contre visite médicale peut être effectuée dès lors que des indemnités journalières sont versées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La contre-visite médicale est née de la loi de mensualisation de 1978. La contre visite médicale peut être effectuée dès lors que des indemnités journalières sont versées.
 Le versement des indemnités journalières complémentaires versées par l'employeur est soumis à deux conditions :
 le versement est dû à compter du 8e jour d'absence.
 le salarié doit avoir au moins 1 an d'ancienneté.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Contre-visite_m%C3%A9dicale</t>
+          <t>Contre-visite_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Conséquences possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'un contrôle médical, si le médecin conclut à un arrêt non justifié, l'employeur est en droit de ne pas lui verser les indemnités complémentaires.
 Les médecins contrôleurs sont tenus, comme dans l'exercice de leur profession, aux directives du code de déontologie médicale en gardant une totale objectivité et en préservant le secret professionnel.
